--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -4,26 +4,46 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="7845" activeTab="1"/>
+    <workbookView windowWidth="19470" windowHeight="7845"/>
   </bookViews>
   <sheets>
-    <sheet name="3" sheetId="1" r:id="rId1"/>
-    <sheet name="4" sheetId="2" r:id="rId2"/>
+    <sheet name="To Do List" sheetId="5" r:id="rId1"/>
+    <sheet name="3" sheetId="1" r:id="rId2"/>
+    <sheet name="4" sheetId="2" r:id="rId3"/>
+    <sheet name="5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>事项</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>翻译pep257(文档字符串)</t>
+  </si>
+  <si>
+    <t>https://peps.python.org/pep-0257/</t>
+  </si>
+  <si>
+    <t>翻译pep3101(字符串格式化)</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>学习内容</t>
-  </si>
-  <si>
-    <t>说明</t>
   </si>
   <si>
     <t>1.Tornado主要模块:(1)tornado.httpserver</t>
@@ -88,10 +108,7 @@
     <t>问题：vncserver启动后使用 sudo netstat -tnlp 找不到端口号？</t>
   </si>
   <si>
-    <t>周</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>14</t>
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Custom Response - HTML, Stream, File, others”至“Advanced Dependencies”。
@@ -106,6 +123,9 @@
   </si>
   <si>
     <t>1.tortoise orm: https://tortoise.github.io/</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Advanced Security”至“Using Dataclasses”。
@@ -209,17 +229,29 @@
   <si>
     <t>1.重叠样式库：Normalize.css(https://necolas.github.io/normalize.css/)</t>
   </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1.《Fluent Python 2》p1-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,8 +270,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +303,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +316,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -275,8 +331,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -292,15 +370,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,30 +384,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -351,38 +413,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,13 +453,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +537,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,55 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,102 +639,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -616,64 +654,53 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,8 +723,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,198 +769,300 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1224,245 +1383,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="10"/>
-    <col min="2" max="2" width="68.6" style="10" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.8" style="10"/>
+    <col min="2" max="2" width="22.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11">
-        <v>44637</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11">
-        <v>44638</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="31.5" spans="1:3">
-      <c r="A5" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="47.25" spans="1:3">
-      <c r="A6" s="11">
-        <v>44640</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11">
-        <v>44641</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11">
-        <v>44642</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11">
-        <v>44643</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11">
-        <v>44644</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="11">
-        <v>44645</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11">
-        <v>44646</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="63" spans="1:4">
-      <c r="A13" s="11">
-        <v>44647</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11">
-        <v>44648</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" ht="47.25" spans="1:3">
-      <c r="A15" s="11">
-        <v>44649</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="31.5" spans="1:3">
-      <c r="A16" s="11">
-        <v>44650</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="11">
-        <v>44651</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://peps.python.org/pep-0257/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1471,12 +1436,302 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="8.8" style="27"/>
+    <col min="3" max="3" width="68.6" style="27" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="29">
+        <v>12</v>
+      </c>
+      <c r="B2" s="30">
+        <v>44637</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30">
+        <v>44638</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="31.5" spans="1:5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30">
+        <v>44639</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" ht="47.25" spans="1:5">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30">
+        <v>44640</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33">
+        <v>13</v>
+      </c>
+      <c r="B7" s="30">
+        <v>44641</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="33"/>
+      <c r="B8" s="30">
+        <v>44642</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="33"/>
+      <c r="B9" s="30">
+        <v>44643</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="33"/>
+      <c r="B10" s="30">
+        <v>44644</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="33"/>
+      <c r="B11" s="30">
+        <v>44645</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="33"/>
+      <c r="B12" s="30">
+        <v>44646</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" ht="63" spans="1:5">
+      <c r="A13" s="33"/>
+      <c r="B13" s="30">
+        <v>44647</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34">
+        <v>14</v>
+      </c>
+      <c r="B14" s="30">
+        <v>44648</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="47.25" spans="1:5">
+      <c r="A15" s="34"/>
+      <c r="B15" s="30">
+        <v>44649</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" ht="31.5" spans="1:5">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30">
+        <v>44650</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="34"/>
+      <c r="B17" s="30">
+        <v>44651</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="35"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="35"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1488,32 +1743,34 @@
     <col min="5" max="5" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>44652</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="47.25" spans="1:5">
@@ -1521,334 +1778,370 @@
       <c r="B3" s="3">
         <v>44653</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" spans="1:4">
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>44654</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" ht="31.5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="31.5" spans="1:5">
+      <c r="A5" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="3">
         <v>44655</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3">
         <v>44656</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="23"/>
       <c r="B7" s="3">
         <v>44657</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="23"/>
       <c r="B8" s="3">
         <v>44658</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="23"/>
       <c r="B9" s="3">
         <v>44659</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="23"/>
       <c r="B10" s="3">
         <v>44660</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23"/>
       <c r="B11" s="3">
         <v>44661</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <v>17</v>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="24">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>44662</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="24"/>
       <c r="B13" s="3">
         <v>44663</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3">
         <v>44664</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="19" customHeight="1" spans="1:4">
-      <c r="A15" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:5">
+      <c r="A15" s="24"/>
       <c r="B15" s="3">
         <v>44665</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" ht="31.5" spans="1:4">
-      <c r="A16" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="31.5" spans="1:5">
+      <c r="A16" s="24"/>
       <c r="B16" s="3">
         <v>44666</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="24"/>
       <c r="B17" s="3">
         <v>44667</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:4">
-      <c r="A18" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:5">
+      <c r="A18" s="24"/>
       <c r="B18" s="3">
         <v>44668</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7">
-        <v>18</v>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="25">
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>44669</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="25"/>
       <c r="B20" s="3">
         <v>44670</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="25"/>
       <c r="B21" s="3">
         <v>44671</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="25"/>
       <c r="B22" s="3">
         <v>44672</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="25"/>
       <c r="B23" s="3">
         <v>44673</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="25"/>
       <c r="B24" s="3">
         <v>44674</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:4">
-      <c r="A25" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:5">
+      <c r="A25" s="25"/>
       <c r="B25" s="3">
         <v>44675</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8">
-        <v>19</v>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26">
+        <v>18</v>
       </c>
       <c r="B26" s="3">
         <v>44676</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="3">
         <v>44677</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="26"/>
       <c r="B28" s="3">
         <v>44678</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
+      <c r="C28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26"/>
       <c r="B29" s="3">
         <v>44679</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
+      <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="26"/>
       <c r="B30" s="3">
         <v>44680</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
+      <c r="C30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="26"/>
       <c r="B31" s="3">
         <v>44681</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A11"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A26:A31"/>
@@ -1856,4 +2149,387 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.8" customWidth="1"/>
+    <col min="2" max="2" width="8.7" customWidth="1"/>
+    <col min="3" max="3" width="58.4" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="5" width="61.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44682</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44683</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3">
+        <v>44684</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3">
+        <v>44685</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3">
+        <v>44686</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3">
+        <v>44687</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3">
+        <v>44688</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3">
+        <v>44689</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44690</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3">
+        <v>44691</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3">
+        <v>44692</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3">
+        <v>44693</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3">
+        <v>44694</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3">
+        <v>44695</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3">
+        <v>44696</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:5">
+      <c r="A17" s="13">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44697</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3">
+        <v>44698</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:5">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3">
+        <v>44699</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:5">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3">
+        <v>44700</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:5">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3">
+        <v>44701</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:5">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3">
+        <v>44702</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:5">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3">
+        <v>44703</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:5">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44704</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A25" s="17"/>
+      <c r="B25" s="3">
+        <v>44705</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:5">
+      <c r="A26" s="17"/>
+      <c r="B26" s="3">
+        <v>44706</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="17"/>
+      <c r="B27" s="3">
+        <v>44707</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:5">
+      <c r="A28" s="17"/>
+      <c r="B28" s="3">
+        <v>44708</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:5">
+      <c r="A29" s="17"/>
+      <c r="B29" s="3">
+        <v>44709</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:5">
+      <c r="A30" s="18"/>
+      <c r="B30" s="3">
+        <v>44710</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A31" s="19">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44711</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="3">
+        <v>44712</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="7845"/>
+    <workbookView windowWidth="19470" windowHeight="7845" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="To Do List" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -239,7 +239,10 @@
     <t>19</t>
   </si>
   <si>
-    <t>1.《Fluent Python 2》p1-</t>
+    <t>1.《Fluent Python 2》p1-p38</t>
+  </si>
+  <si>
+    <t>1.《Fluent Python 2》p39-p57</t>
   </si>
 </sst>
 </file>
@@ -247,11 +250,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -279,18 +282,18 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,29 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +336,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -362,7 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +366,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,9 +395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,13 +416,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -465,25 +468,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,31 +558,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,109 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +708,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -716,15 +728,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,16 +748,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,6 +782,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -787,141 +805,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,19 +933,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,7 +965,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1016,7 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1058,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
@@ -1385,7 +1388,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1729,7 +1732,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
@@ -2156,8 +2159,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -2417,7 +2420,9 @@
       <c r="B22" s="3">
         <v>44702</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
     </row>
